--- a/Files/Tables/Exotic Armors.xlsx
+++ b/Files/Tables/Exotic Armors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ARMORS</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>RARITY</t>
+  </si>
+  <si>
+    <t>BONUS</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L17" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +578,9 @@
       <c r="I8" t="s">
         <v>8</v>
       </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L12" s="1"/>
